--- a/program/AxleLoad/戴姆勒工况逆向-载荷分解表.xlsx
+++ b/program/AxleLoad/戴姆勒工况逆向-载荷分解表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19260" windowHeight="9000"/>
+    <workbookView windowWidth="15570" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="戴姆勒工况逆向" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,18 @@
         </r>
       </text>
     </comment>
+    <comment ref="G45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>比例</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -306,11 +318,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -321,15 +333,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,6 +343,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,45 +379,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,14 +417,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -418,33 +424,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,7 +440,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,6 +481,11 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -498,6 +508,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -510,19 +550,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,7 +658,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,139 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,6 +699,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -703,21 +752,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,40 +775,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,152 +804,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,23 +965,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1326,8 +1330,8 @@
   <sheetPr/>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C53" sqref="A48:C53"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2224,27 +2228,27 @@
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="4" t="s">
         <v>67</v>
       </c>
       <c r="G39" s="4" t="s">
@@ -2253,10 +2257,10 @@
       <c r="H39" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="I39" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="J39" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2264,10 +2268,10 @@
       <c r="D40" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="4" t="s">
         <v>72</v>
       </c>
       <c r="G40" s="4" t="s">
@@ -2317,129 +2321,133 @@
       </c>
     </row>
     <row r="44" s="3" customFormat="1" spans="1:12">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <f>B25*2/g/Mass_f</f>
         <v>3.00000509858106</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="9">
         <f>C25*2/g/Mass_f</f>
         <v>3.99996430993255</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="9">
         <f>D25*2/g/Mass_f</f>
         <v>3.00000509858106</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="9">
         <f>E25/g/Mass_f</f>
         <v>1.00002294361479</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="9">
         <f>F25/g/Mass_f</f>
         <v>2.2500038239358</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="9">
         <f>(G25*2/g-Mass_f)*L/(CG_height*Mass*1000)</f>
         <v>1.09988956058813</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="9">
         <f>(H25*2/g-Mass_f)*L/(CG_height*Mass*1000)</f>
         <v>-1.10015166527624</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="9">
         <f>(I25*2/g-Mass_f)*L/(CG_height*Mass*1000)</f>
         <v>0.800107323556719</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="9">
         <f>(J25*2/g-Mass_f)*L/(CG_height*Mass*1000)</f>
         <v>0.800107323556719</v>
       </c>
-      <c r="K44" s="10">
+      <c r="K44" s="9">
         <f>(K25*2/g-Mass_f)*L/(CG_height*Mass*1000)</f>
         <v>-0.716823558908212</v>
       </c>
-      <c r="L44" s="10">
+      <c r="L44" s="9">
         <f>(L25*2/g-Mass_f)*L/(CG_height*Mass*1000)</f>
         <v>0.583461417286755</v>
       </c>
     </row>
     <row r="45" s="3" customFormat="1" spans="1:12">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9">
         <f>D32*2/g/(Mass_f-Mass_wheel*2)</f>
         <v>2.00002177231914</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="9">
         <f>E27/g/Mass_f</f>
         <v>1.00002294361479</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="9">
         <f>F27/g/Mass_f</f>
         <v>1.30001070702024</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="9">
         <f t="shared" ref="G45:J45" si="0">G23/G25</f>
         <v>1.09999050422562</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="9">
         <f t="shared" si="0"/>
         <v>-1.10001938360147</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="9">
         <f t="shared" si="0"/>
         <v>0.799979589754057</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45" s="9">
         <f t="shared" si="0"/>
         <v>0.799979589754057</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K45" s="9">
         <f>K21/K25</f>
         <v>-1.10008203445447</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L45" s="9">
         <f>L21/L25</f>
         <v>1.1</v>
       </c>
     </row>
     <row r="46" s="3" customFormat="1" spans="1:10">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9">
         <f>I32/g/(Mass_f-Mass_wheel*2)</f>
         <v>2.12975999049735</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J46" s="9">
         <f>J32/g/(Mass_f-Mass_wheel*2)</f>
         <v>2.67027848311977</v>
       </c>
     </row>
-    <row r="47" s="3" customFormat="1" spans="1:10">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10">
+    <row r="47" s="3" customFormat="1" spans="1:11">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9">
         <f>I32/g/(Mass_f)</f>
         <v>1.97002799121005</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47" s="9">
         <f>J32/g/(Mass_f)</f>
         <v>2.47000759688579</v>
+      </c>
+      <c r="K47" s="3">
+        <f>K21*2/g/Mass</f>
+        <v>-0.515820234478839</v>
       </c>
     </row>
     <row r="48" spans="7:8">
@@ -2451,96 +2459,96 @@
       </c>
     </row>
     <row r="50" spans="11:12">
-      <c r="K50" s="9" t="s">
+      <c r="K50" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="L50" s="9" t="s">
+      <c r="L50" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="51" spans="11:12">
-      <c r="K51" s="9">
+      <c r="K51" s="4">
         <v>1300</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L51" s="4">
         <v>1977</v>
       </c>
     </row>
     <row r="52" spans="11:12">
-      <c r="K52" s="9" t="s">
+      <c r="K52" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L52" s="9" t="s">
+      <c r="L52" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="53" spans="11:12">
-      <c r="K53" s="9">
+      <c r="K53" s="4">
         <f>K51*3.27</f>
         <v>4251</v>
       </c>
-      <c r="L53" s="9">
+      <c r="L53" s="4">
         <f>L51*3.27</f>
         <v>6464.79</v>
       </c>
     </row>
     <row r="54" spans="11:12">
-      <c r="K54" s="9" t="s">
+      <c r="K54" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="L54" s="9" t="s">
+      <c r="L54" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="55" spans="11:12">
-      <c r="K55" s="9">
+      <c r="K55" s="4">
         <f>K53/0.317</f>
         <v>13410.094637224</v>
       </c>
-      <c r="L55" s="9">
+      <c r="L55" s="4">
         <f>L53/0.317</f>
         <v>20393.6593059937</v>
       </c>
     </row>
     <row r="56" spans="11:12">
-      <c r="K56" s="9" t="s">
+      <c r="K56" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="L56" s="9" t="s">
+      <c r="L56" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="57" spans="11:12">
-      <c r="K57" s="9">
+      <c r="K57" s="4">
         <f>K55/2</f>
         <v>6705.04731861199</v>
       </c>
-      <c r="L57" s="9">
+      <c r="L57" s="4">
         <f>L55/2</f>
         <v>10196.8296529968</v>
       </c>
     </row>
     <row r="58" spans="11:12">
-      <c r="K58" s="9" t="s">
+      <c r="K58" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L58" s="9" t="s">
+      <c r="L58" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="59" spans="11:12">
-      <c r="K59" s="9">
+      <c r="K59" s="4">
         <f>K57/1.1</f>
         <v>6095.49756237453</v>
       </c>
-      <c r="L59" s="9">
+      <c r="L59" s="4">
         <f>L57/1.1</f>
         <v>9269.84513908804</v>
       </c>
     </row>
     <row r="60" spans="11:12">
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
